--- a/resources/data_dictionary.xlsx
+++ b/resources/data_dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prakhar\Downloads\Logistic\Case Study\HR Analytics Case Study\PA-I_Case_Study_HR_Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallh\OneDrive\Documents\GitHub\Project2-ETL\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E779898-FDC7-4ADE-86E0-660B63286EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView minimized="1" xWindow="20550" yWindow="-13740" windowWidth="12480" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
   <si>
     <t>Variable</t>
   </si>
@@ -253,12 +254,87 @@
   </si>
   <si>
     <t>Number of years under current manager</t>
+  </si>
+  <si>
+    <t>1 'Yes'</t>
+  </si>
+  <si>
+    <t>0 'No'</t>
+  </si>
+  <si>
+    <t>1 Travel_Rarely</t>
+  </si>
+  <si>
+    <t>2 'Travel_Frequently'</t>
+  </si>
+  <si>
+    <t>0 'Non-Travel'</t>
+  </si>
+  <si>
+    <t>1 'Sales'</t>
+  </si>
+  <si>
+    <t>2 ' Research &amp; Development'</t>
+  </si>
+  <si>
+    <t>3 'Human Resources'</t>
+  </si>
+  <si>
+    <t>1  'Life Sciences'</t>
+  </si>
+  <si>
+    <t>2 'Other'</t>
+  </si>
+  <si>
+    <t>3 'Medical'</t>
+  </si>
+  <si>
+    <t>4 'Marketing'</t>
+  </si>
+  <si>
+    <t>5 'Technical Degree'</t>
+  </si>
+  <si>
+    <t>6  'Human Resources'</t>
+  </si>
+  <si>
+    <t>1 'Female'</t>
+  </si>
+  <si>
+    <t>2 'Male'</t>
+  </si>
+  <si>
+    <t>1 'Healthcare Representative'</t>
+  </si>
+  <si>
+    <t>3 'Sales Executive'</t>
+  </si>
+  <si>
+    <t>4 'Human Resources'</t>
+  </si>
+  <si>
+    <t>5 'Research Director'</t>
+  </si>
+  <si>
+    <t>6 'Laboratory Technician'</t>
+  </si>
+  <si>
+    <t>2 'Research Scientist'</t>
+  </si>
+  <si>
+    <t>7 'Manufacturing Director'</t>
+  </si>
+  <si>
+    <t>8 'Sales Representative'</t>
+  </si>
+  <si>
+    <t>9 'Manager'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -794,7 +870,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -807,6 +883,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1161,21 +1239,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1195,452 +1273,596 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C8" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="2" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="2" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="2" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="2" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="2" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="2" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="2" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="2" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="2" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="2" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C72" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A54:A57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>